--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\Generate_Yearly_Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AD5B2-1BCD-4EB8-BDC2-FE9241184209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B8D14-CB42-4878-B101-8AE926D00DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>in_UrlWorkItem</t>
+  </si>
+  <si>
+    <t>User_Cred</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -632,7 +635,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -647,7 +650,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
